--- a/reverseprimer-v3_08.xlsx
+++ b/reverseprimer-v3_08.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="reverseprimer-v3_08" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>R0673-CTGATGAGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGATGAGACGTCTCGTGGGCTCGG</t>
+    <t>R0673-CCTCGAAGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCTCGAAGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>R0674-GAACATCAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAACATCAGCGTCTCGTGGGCTCGG</t>
+    <t>R0674-TCGAGATCTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCGAGATCTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>R0675-ATGCTTGAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGCTTGAACGTCTCGTGGGCTCGG</t>
+    <t>R0675-GGTACCATCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGTACCATCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>R0676-GTCTTGTCTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCTTGTCTCGTCTCGTGGGCTCGG</t>
+    <t>R0676-TACTGTGAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACTGTGAAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>R0677-AGTGACACTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTGACACTGGTCTCGTGGGCTCGG</t>
+    <t>R0677-TCAGTACGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAGTACGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>R0678-TTGGTACGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGGTACGTGGTCTCGTGGGCTCGG</t>
+    <t>R0678-TCTACAGTCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTACAGTCGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>R0679-AAGACGAAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGACGAAGCGTCTCGTGGGCTCGG</t>
+    <t>R0679-AGATCGAGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGATCGAGTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>R0680-TTCGATGTCA</t>
+    <t>R0680-ACTCCTCCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTCCTCCTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>R0681-TAGAGATCCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGAGATCCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>R0682-TCAGCAGAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAGCAGAACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>R0683-TTCGATGTCA</t>
   </si>
   <si>
     <t>CAAGCAGAAGACGGCATACGAGATTTCGATGTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
-    <t>A9</t>
-  </si>
-  <si>
-    <t>R0681-AACCACTCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACCACTCTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>R0682-TGACCATCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGACCATCTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>A11</t>
-  </si>
-  <si>
-    <t>R0683-GTCTAGCTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCTAGCTGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
     <t>A12</t>
   </si>
   <si>
-    <t>R0684-AGGTTGTCGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGTTGTCGAGTCTCGTGGGCTCGG</t>
+    <t>R0684-ATCCAGTGGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCCAGTGGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>R0685-ACGTGTTGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACGTGTTGCTGTCTCGTGGGCTCGG</t>
+    <t>R0685-CTACCACTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTACCACTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>R0686-TACTGCATGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACTGCATGAGTCTCGTGGGCTCGG</t>
+    <t>R0686-TCCTTGTAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCTTGTAGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>R0687-AAGTCTCTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGTCTCTGTGTCTCGTGGGCTCGG</t>
+    <t>R0687-CTTCAGCTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTTCAGCTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>R0688-ACTGTGACCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTGTGACCAGTCTCGTGGGCTCGG</t>
+    <t>R0688-ACTCCACTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTCCACTAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>R0689-ATGGATCTCC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGGATCTCCGTCTCGTGGGCTCGG</t>
+    <t>R0689-GAGTGGTGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGTGGTGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>R0690-TAGACAAGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGACAAGAGGTCTCGTGGGCTCGG</t>
+    <t>R0690-GGTCTCTTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGTCTCTTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>R0691-GTGATGAGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGATGAGTAGTCTCGTGGGCTCGG</t>
+    <t>R0691-GACGTGTTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACGTGTTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>R0692-GTTCTGTGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTCTGTGTGGTCTCGTGGGCTCGG</t>
+    <t>R0692-GGTTGATGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGTTGATGTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B9</t>
   </si>
   <si>
-    <t>R0693-GGATCCTGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGATCCTGATGTCTCGTGGGCTCGG</t>
+    <t>R0693-GATGCTCATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATGCTCATCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B10</t>
   </si>
   <si>
-    <t>R0694-TAGCTAGGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGCTAGGTTGTCTCGTGGGCTCGG</t>
+    <t>R0694-TGTCTCGTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTCTCGTACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B11</t>
   </si>
   <si>
-    <t>R0695-TGTCTTCAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTCTTCAGGGTCTCGTGGGCTCGG</t>
+    <t>R0695-TACCTCATCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACCTCATCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B12</t>
   </si>
   <si>
-    <t>R0696-TACCACACCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACCACACCAGTCTCGTGGGCTCGG</t>
+    <t>R0696-ACTGCACCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTGCACCAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>R0697-GAGTGTCGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGTGTCGTTGTCTCGTGGGCTCGG</t>
+    <t>R0697-GGAAGAAGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGAAGAAGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>R0698-GGTCTTGCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGTCTTGCTTGTCTCGTGGGCTCGG</t>
+    <t>R0698-ATGGTAGAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGGTAGAGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>R0699-ACCAAGTGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCAAGTGAAGTCTCGTGGGCTCGG</t>
+    <t>R0699-GCTAGATCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCTAGATCAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>R0700-TCCTCAGGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCTCAGGAAGTCTCGTGGGCTCGG</t>
+    <t>R0700-TCGAACGTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCGAACGTACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>R0701-AGACAGCTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGACAGCTCTGTCTCGTGGGCTCGG</t>
+    <t>R0701-ATCTACCAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCTACCAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>R0702-CTCTCGTGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCTCGTGAAGTCTCGTGGGCTCGG</t>
+    <t>R0702-AGCACTGTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGCACTGTACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C7</t>
   </si>
   <si>
-    <t>R0703-TCACGACCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCACGACCTTGTCTCGTGGGCTCGG</t>
+    <t>R0703-AGAGAAGACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAGAAGACGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C8</t>
   </si>
   <si>
-    <t>R0704-GAAGAGCTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAAGAGCTCAGTCTCGTGGGCTCGG</t>
+    <t>R0704-TGTGATGGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTGATGGTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C9</t>
   </si>
   <si>
-    <t>R0705-AACGTCTCAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACGTCTCAGGTCTCGTGGGCTCGG</t>
+    <t>R0705-AGTTCCTACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTTCCTACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C10</t>
   </si>
   <si>
-    <t>R0706-GATCACTGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATCACTGTCGTCTCGTGGGCTCGG</t>
+    <t>R0706-GATCAGCACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATCAGCACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C11</t>
   </si>
   <si>
-    <t>R0707-TCGTTGAGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCGTTGAGTTGTCTCGTGGGCTCGG</t>
+    <t>R0707-GTTCCAGAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTCCAGAACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C12</t>
   </si>
   <si>
-    <t>R0708-ATGAGTGTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGAGTGTAGGTCTCGTGGGCTCGG</t>
+    <t>R0708-ACTAGTGGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTAGTGGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>R0709-TCAAGTCAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAAGTCAACGTCTCGTGGGCTCGG</t>
+    <t>R0709-TGGTGTCAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGGTGTCAAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
-    <t>R0710-GATGTCCTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATGTCCTAGGTCTCGTGGGCTCGG</t>
+    <t>R0710-AGGATGACTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGATGACTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>R0711-TGCTAGGTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGCTAGGTCTGTCTCGTGGGCTCGG</t>
+    <t>R0711-TACCTACCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACCTACCATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D4</t>
   </si>
   <si>
-    <t>R0712-TGATGCAGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGATGCAGACGTCTCGTGGGCTCGG</t>
+    <t>R0712-ATGAAGTGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGAAGTGCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D5</t>
   </si>
   <si>
-    <t>R0713-GTTCTAGGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTCTAGGTCGTCTCGTGGGCTCGG</t>
+    <t>R0713-ACAACAGGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAACAGGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D6</t>
   </si>
   <si>
-    <t>R0714-TTCCAAGACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCCAAGACAGTCTCGTGGGCTCGG</t>
+    <t>R0714-GGTAGAGGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGTAGAGGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D7</t>
   </si>
   <si>
-    <t>R0715-TGCATGATGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGCATGATGAGTCTCGTGGGCTCGG</t>
+    <t>R0715-GTCTTGACGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCTTGACGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D8</t>
   </si>
   <si>
-    <t>R0716-TCTCTACCTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTCTACCTGGTCTCGTGGGCTCGG</t>
+    <t>R0716-AACTCACGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACTCACGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D9</t>
   </si>
   <si>
-    <t>R0717-TGTCTCAACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTCTCAACCGTCTCGTGGGCTCGG</t>
+    <t>R0717-ACAGTCTAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAGTCTAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D10</t>
   </si>
   <si>
-    <t>R0718-TGACGAGTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGACGAGTAGGTCTCGTGGGCTCGG</t>
+    <t>R0718-ACAAGGATGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAAGGATGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D11</t>
   </si>
   <si>
-    <t>R0719-TCGTGGTCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCGTGGTCTAGTCTCGTGGGCTCGG</t>
+    <t>R0719-TGTGACAGGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTGACAGGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D12</t>
   </si>
   <si>
-    <t>R0720-GGATCCTAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGATCCTAGAGTCTCGTGGGCTCGG</t>
+    <t>R0720-GAACATGTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAACATGTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E1</t>
   </si>
   <si>
-    <t>R0721-AACAACTGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACAACTGTCGTCTCGTGGGCTCGG</t>
+    <t>R0721-AAGCTCAGGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGCTCAGGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E2</t>
   </si>
   <si>
-    <t>R0722-CTTCTCTGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTTCTCTGTTGTCTCGTGGGCTCGG</t>
+    <t>R0722-AACCTTGAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACCTTGAAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E3</t>
   </si>
   <si>
-    <t>R0723-GACTACGATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACTACGATCGTCTCGTGGGCTCGG</t>
+    <t>R0723-TAGAACAGCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGAACAGCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E4</t>
   </si>
   <si>
-    <t>R0724-GAGTCGTTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGTCGTTCAGTCTCGTGGGCTCGG</t>
+    <t>R0724-ACAGAGCTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAGAGCTACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E5</t>
   </si>
   <si>
-    <t>R0725-TCCAACATGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCAACATGCGTCTCGTGGGCTCGG</t>
+    <t>R0725-TGTCTACGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTCTACGTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E6</t>
   </si>
   <si>
-    <t>R0726-TCATCCACAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCATCCACAAGTCTCGTGGGCTCGG</t>
+    <t>R0726-TACTCAGATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACTCAGATGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E7</t>
   </si>
   <si>
-    <t>R0727-TGTTGAGGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTTGAGGAGGTCTCGTGGGCTCGG</t>
+    <t>R0727-TTGACTGACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGACTGACGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E8</t>
   </si>
   <si>
-    <t>R0728-TTCGAGTTCC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCGAGTTCCGTCTCGTGGGCTCGG</t>
+    <t>R0728-GAGTTGTACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGTTGTACGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E9</t>
   </si>
   <si>
-    <t>R0729-ATCGAGAGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCGAGAGAGGTCTCGTGGGCTCGG</t>
+    <t>R0729-ACATCTGACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACATCTGACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E10</t>
   </si>
   <si>
-    <t>R0730-AGACTCTACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGACTCTACCGTCTCGTGGGCTCGG</t>
+    <t>R0730-CTGCACTTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGCACTTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E11</t>
   </si>
   <si>
-    <t>R0731-TGCAGTTCAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGCAGTTCAGGTCTCGTGGGCTCGG</t>
+    <t>R0731-GTGTCACATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGTCACATGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E12</t>
   </si>
   <si>
-    <t>R0732-ATGACAACTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGACAACTGGTCTCGTGGGCTCGG</t>
+    <t>R0732-AGTCAGAACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTCAGAACGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F1</t>
   </si>
   <si>
-    <t>R0733-ACGAAGAACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACGAAGAACAGTCTCGTGGGCTCGG</t>
+    <t>R0733-GTCACATCTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCACATCTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F2</t>
   </si>
   <si>
-    <t>R0734-CTCGATGTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCGATGTACGTCTCGTGGGCTCGG</t>
+    <t>R0734-TCCTTCATCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCTTCATCGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F3</t>
   </si>
   <si>
-    <t>R0735-TCGAACCTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCGAACCTCAGTCTCGTGGGCTCGG</t>
+    <t>R0735-AACCTCACAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACCTCACACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F4</t>
   </si>
   <si>
-    <t>R0736-ACAACACCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAACACCTTGTCTCGTGGGCTCGG</t>
+    <t>R0736-CAACTCGTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAACTCGTTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F5</t>
   </si>
   <si>
-    <t>R0737-TGTCAGTACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTCAGTACCGTCTCGTGGGCTCGG</t>
+    <t>R0737-GATGGTGTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATGGTGTTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F6</t>
   </si>
   <si>
-    <t>R0738-ATCTCTGTCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCTCTGTCGGTCTCGTGGGCTCGG</t>
+    <t>R0738-CTACAGATGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTACAGATGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F7</t>
   </si>
   <si>
-    <t>R0739-GATGTGAGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATGTGAGTGGTCTCGTGGGCTCGG</t>
+    <t>R0739-TTCCATGGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCCATGGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F8</t>
   </si>
   <si>
-    <t>R0740-AGCTGATCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGCTGATCATGTCTCGTGGGCTCGG</t>
+    <t>R0740-CGTGATGATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGTGATGATGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F9</t>
   </si>
   <si>
-    <t>R0741-CAGTCTGCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGTCTGCATGTCTCGTGGGCTCGG</t>
+    <t>R0741-CTCTGCATGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCTGCATGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F10</t>
   </si>
   <si>
-    <t>R0742-CTCCATCTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCCATCTCTGTCTCGTGGGCTCGG</t>
+    <t>R0742-AGACCTAGGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGACCTAGGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F11</t>
   </si>
   <si>
-    <t>R0743-GACGTGTTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACGTGTTCTGTCTCGTGGGCTCGG</t>
+    <t>R0743-ACATGGAAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACATGGAAGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F12</t>
   </si>
   <si>
-    <t>R0744-ATCCAGAAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCCAGAAGGGTCTCGTGGGCTCGG</t>
+    <t>R0744-TACGTTGACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACGTTGACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G1</t>
   </si>
   <si>
-    <t>R0745-GTGACTGCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGACTGCAAGTCTCGTGGGCTCGG</t>
+    <t>R0745-GACTGAAGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACTGAAGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G2</t>
   </si>
   <si>
-    <t>R0746-ACCTGTGAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCTGTGAGAGTCTCGTGGGCTCGG</t>
+    <t>R0746-TGCTCTCCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGCTCTCCATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G3</t>
   </si>
   <si>
-    <t>R0747-GGTACTCTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGTACTCTGTGTCTCGTGGGCTCGG</t>
+    <t>R0747-GAAGAGAGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAAGAGAGCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G4</t>
   </si>
   <si>
-    <t>R0748-GAAGGAGCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAAGGAGCAAGTCTCGTGGGCTCGG</t>
+    <t>R0748-GTCATGATCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCATGATCGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G5</t>
   </si>
   <si>
-    <t>R0749-CAACTGCTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAACTGCTGAGTCTCGTGGGCTCGG</t>
+    <t>R0749-TGTCCTCGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTCCTCGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G6</t>
   </si>
   <si>
-    <t>R0750-TAGGTACACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGGTACACAGTCTCGTGGGCTCGG</t>
+    <t>R0750-GAACCTAGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAACCTAGTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G7</t>
   </si>
   <si>
-    <t>R0751-TACTGGATCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACTGGATCTGTCTCGTGGGCTCGG</t>
+    <t>R0751-CAGAAGTTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAGAAGTTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G8</t>
   </si>
   <si>
-    <t>R0752-CATCAGCTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATCAGCTTGGTCTCGTGGGCTCGG</t>
+    <t>R0752-GATCCTACTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATCCTACTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G9</t>
   </si>
   <si>
-    <t>R0753-GAGAAGCACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGAAGCACAGTCTCGTGGGCTCGG</t>
+    <t>R0753-GATCGAGGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATCGAGGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G10</t>
   </si>
   <si>
-    <t>R0754-ACTACATCTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTACATCTGGTCTCGTGGGCTCGG</t>
+    <t>R0754-AGACTTGGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGACTTGGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G11</t>
   </si>
   <si>
-    <t>R0755-TGGTACGAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGGTACGAGTGTCTCGTGGGCTCGG</t>
+    <t>R0755-CATGGAGCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATGGAGCTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G12</t>
   </si>
   <si>
-    <t>R0756-GCTGTTCGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCTGTTCGAAGTCTCGTGGGCTCGG</t>
+    <t>R0756-AAGAAGTACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGAAGTACGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>R0757-ATCTCGTTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCTCGTTCAGTCTCGTGGGCTCGG</t>
+    <t>R0757-GTACGTCTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTACGTCTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>R0758-TACGTACATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACGTACATGGTCTCGTGGGCTCGG</t>
+    <t>R0758-GAAGTCTCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAAGTCTCATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>R0759-AGACATGCTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGACATGCTCGTCTCGTGGGCTCGG</t>
+    <t>R0759-CATGTCTACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATGTCTACCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>R0760-TGAGTGTCGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGAGTGTCGTGTCTCGTGGGCTCGG</t>
+    <t>R0760-CACTAGCTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCACTAGCTACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>R0761-GTAGTGCATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTAGTGCATCGTCTCGTGGGCTCGG</t>
+    <t>R0761-CAAGTGACGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAAGTGACGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>R0762-CTTGACGTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTTGACGTCAGTCTCGTGGGCTCGG</t>
+    <t>R0762-TGTGGTACTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTGGTACTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>R0763-TACATCACTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACATCACTCGTCTCGTGGGCTCGG</t>
+    <t>R0763-TCTCACAACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTCACAACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>R0764-GAAGAGAGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAAGAGAGCTGTCTCGTGGGCTCGG</t>
+    <t>R0764-GGATCTAGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGATCTAGACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>R0765-GAGTTGTACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGTTGTACGGTCTCGTGGGCTCGG</t>
+    <t>R0765-AAGCTTGGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGCTTGGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>R0766-CTCACTCGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCACTCGTTGTCTCGTGGGCTCGG</t>
+    <t>R0766-GATCCAGTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATCCAGTAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>R0767-ACAACAGACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAACAGACGGTCTCGTGGGCTCGG</t>
+    <t>R0767-AACACACTCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACACACTCCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>R0768-TACTAGCAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACTAGCAAGGTCTCGTGGGCTCGG</t>
+    <t>R0768-TCGAAGACGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCGAAGACGAGTCTCGTGGGCTCGG</t>
   </si>
 </sst>
 </file>
